--- a/biology/Zoologie/Baetis_muticus/Baetis_muticus.xlsx
+++ b/biology/Zoologie/Baetis_muticus/Baetis_muticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baetis muticus est une espèce d'insectes de l'ordre des éphéméroptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphe : de 4 à 7 mm pour le corps
 Imago :
@@ -547,7 +561,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Très abondant sur tous les cours d'eau d'Europe à régime plutôt lent.
 Baetis muticus est pratiquement absent des rivières à pH plutôt acide.
@@ -579,7 +595,9 @@
           <t>Éclosion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Surtout de mai à mi-septembre, par petites éclosions bien distinctes.
  Portail de l’entomologie                     </t>
